--- a/CGCNN_MT/evaluation/ML_results_external_test.xlsx
+++ b/CGCNN_MT/evaluation/ML_results_external_test.xlsx
@@ -478,14 +478,14 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>ML_retrained</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3495459260944278</v>
+        <v>0.3495459260944275</v>
       </c>
       <c r="D2" t="n">
-        <v>53.82934754414369</v>
+        <v>53.82934754414373</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -499,7 +499,7 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>ML_retrained</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -522,7 +522,7 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>ML_retrained</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -545,7 +545,7 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>ML_retrained</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -568,7 +568,7 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>ML_retrained</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -591,7 +591,7 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>ML_retrained</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -614,7 +614,7 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>ML_retrained</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
